--- a/2024/shuffle-architecute/Teste10/content/results/metrics_6_7.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_6_7.xlsx
@@ -488,445 +488,445 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_0</t>
+          <t>model_6_7_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.988447332579617</v>
+        <v>0.9472248237639688</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8067297832678872</v>
+        <v>0.759460487316633</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9831517948742136</v>
+        <v>0.2385727523121765</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01554256922921327</v>
+        <v>0.9968353758406833</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9714219019090609</v>
+        <v>0.8858193005351742</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04848407208919525</v>
+        <v>0.2214861363172531</v>
       </c>
       <c r="H2" t="n">
-        <v>1.292398929595947</v>
+        <v>1.608488917350769</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02815544791519642</v>
+        <v>1.351782441139221</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02055728062987328</v>
+        <v>0.03246167302131653</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02435638010501862</v>
+        <v>0.6921221017837524</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_1</t>
+          <t>model_6_7_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9898246419534449</v>
+        <v>0.9471331186898639</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8059879716412833</v>
+        <v>0.7594456140439714</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9787038168199421</v>
+        <v>0.2371137562703708</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2313593471093682</v>
+        <v>0.9968543799054153</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9640364069621083</v>
+        <v>0.8856217408909095</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04270379617810249</v>
+        <v>0.2218709737062454</v>
       </c>
       <c r="H3" t="n">
-        <v>1.297359347343445</v>
+        <v>1.608588457107544</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0355885736644268</v>
+        <v>1.354372620582581</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02571304701268673</v>
+        <v>0.03226673603057861</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03065084852278233</v>
+        <v>0.6933196783065796</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_2</t>
+          <t>model_6_7_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9907450853842374</v>
+        <v>0.9470311584381306</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8051060995804211</v>
+        <v>0.7594289380059355</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9737635997061095</v>
+        <v>0.2354933126781135</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5640644405549342</v>
+        <v>0.9968754111460459</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9551172742906938</v>
+        <v>0.8854021887311831</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03884089738130569</v>
+        <v>0.2222989052534103</v>
       </c>
       <c r="H4" t="n">
-        <v>1.303256392478943</v>
+        <v>1.608699917793274</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04384429007768631</v>
+        <v>1.35724937915802</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03266054019331932</v>
+        <v>0.03205100819468498</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03825239837169647</v>
+        <v>0.6946504712104797</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_3</t>
+          <t>model_6_7_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9913205164549128</v>
+        <v>0.9469176641203918</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8041227799406243</v>
+        <v>0.7594102675876185</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9687293593893839</v>
+        <v>0.2336903627030914</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.9620029131261472</v>
+        <v>0.9968986982015052</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9453067522744166</v>
+        <v>0.8851579303244332</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03642593324184418</v>
+        <v>0.2227751910686493</v>
       </c>
       <c r="H5" t="n">
-        <v>1.309831857681274</v>
+        <v>1.608824729919434</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05225713178515434</v>
+        <v>1.360450267791748</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04097022861242294</v>
+        <v>0.03181213885545731</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04661364853382111</v>
+        <v>0.6961311101913452</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_4</t>
+          <t>model_6_7_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9916426475716975</v>
+        <v>0.9467914410652402</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8030879537428662</v>
+        <v>0.7593892627072412</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9638960564523271</v>
+        <v>0.2316871539515016</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.402792874912391</v>
+        <v>0.9969244882097529</v>
       </c>
       <c r="F6" t="n">
-        <v>0.935168148470971</v>
+        <v>0.8848864338416853</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03507401794195175</v>
+        <v>0.2233049422502518</v>
       </c>
       <c r="H6" t="n">
-        <v>1.316751718521118</v>
+        <v>1.608965158462524</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06033418327569962</v>
+        <v>1.364006519317627</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05017473548650742</v>
+        <v>0.03154759109020233</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05525452271103859</v>
+        <v>0.6977767944335938</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_5</t>
+          <t>model_6_7_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9917805202104752</v>
+        <v>0.9466508805538201</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8020474518673738</v>
+        <v>0.7593656857260601</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9594064999079619</v>
+        <v>0.2294596391864894</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.866555565978245</v>
+        <v>0.9969530077441829</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9250854255843263</v>
+        <v>0.8845842919535365</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03449539840221405</v>
+        <v>0.2238948196172714</v>
       </c>
       <c r="H7" t="n">
-        <v>1.323709607124329</v>
+        <v>1.609122753143311</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06783679127693176</v>
+        <v>1.367961168289185</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05985894799232483</v>
+        <v>0.03125504404306412</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06384777277708054</v>
+        <v>0.699608325958252</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_6</t>
+          <t>model_6_7_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9917845442039471</v>
+        <v>0.9464945022386525</v>
       </c>
       <c r="C8" t="n">
-        <v>0.801034568187968</v>
+        <v>0.7593391570266348</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9552963278848761</v>
+        <v>0.2269831582508907</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.337824918028919</v>
+        <v>0.9969845357883244</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9152823618753017</v>
+        <v>0.8842483893465096</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03447850793600082</v>
+        <v>0.2245511263608932</v>
       </c>
       <c r="H8" t="n">
-        <v>1.330482840538025</v>
+        <v>1.609300136566162</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07470539957284927</v>
+        <v>1.372357726097107</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06969992071390152</v>
+        <v>0.03093164414167404</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07220266759395599</v>
+        <v>0.7016443610191345</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_7</t>
+          <t>model_6_7_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9916918921638923</v>
+        <v>0.9463203205620162</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8000696363370342</v>
+        <v>0.7593093030118025</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9515503366020618</v>
+        <v>0.2242288371358253</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.805241708165056</v>
+        <v>0.9970193971306659</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9058837297632666</v>
+        <v>0.8838745399660608</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03486735001206398</v>
+        <v>0.2252821177244186</v>
       </c>
       <c r="H9" t="n">
-        <v>1.33693528175354</v>
+        <v>1.609499931335449</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08096542209386826</v>
+        <v>1.37724757194519</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07946044206619263</v>
+        <v>0.03057404607534409</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08021288365125656</v>
+        <v>0.7039105892181396</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_8</t>
+          <t>model_6_7_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.99153071770704</v>
+        <v>0.9461263254312186</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7991633416322886</v>
+        <v>0.7592756873217515</v>
       </c>
       <c r="D10" t="n">
-        <v>0.948138345877095</v>
+        <v>0.2211662931710718</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.260698847109218</v>
+        <v>0.9970578568407423</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8969589848316211</v>
+        <v>0.8834585226984499</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0355437658727169</v>
+        <v>0.2260962873697281</v>
       </c>
       <c r="H10" t="n">
-        <v>1.342995643615723</v>
+        <v>1.609724640846252</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08666728436946869</v>
+        <v>1.382684588432312</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08897122740745544</v>
+        <v>0.03017953783273697</v>
       </c>
       <c r="K10" t="n">
-        <v>0.08781921863555908</v>
+        <v>0.7064322829246521</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_9</t>
+          <t>model_6_7_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9913224827586724</v>
+        <v>0.9459103177248476</v>
       </c>
       <c r="C11" t="n">
-        <v>0.798320077765966</v>
+        <v>0.7592377137661676</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9450281508460368</v>
+        <v>0.2177606089154681</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.698636484607832</v>
+        <v>0.9971002888713353</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8885447103269791</v>
+        <v>0.8829957485532474</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03641768172383308</v>
+        <v>0.227002814412117</v>
       </c>
       <c r="H11" t="n">
-        <v>1.348634600639343</v>
+        <v>1.609978675842285</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09186480194330215</v>
+        <v>1.388730764389038</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09811616688966751</v>
+        <v>0.02974428422749043</v>
       </c>
       <c r="K11" t="n">
-        <v>0.09499048441648483</v>
+        <v>0.7092374563217163</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_10</t>
+          <t>model_6_7_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9910837478836161</v>
+        <v>0.9456696197010084</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7975404917088741</v>
+        <v>0.759194828993065</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9421915246732038</v>
+        <v>0.2139729059295339</v>
       </c>
       <c r="E12" t="n">
-        <v>-4.115370447492654</v>
+        <v>0.9971470910537289</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8806583817422581</v>
+        <v>0.8824806278693348</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03741960227489471</v>
+        <v>0.2280129939317703</v>
       </c>
       <c r="H12" t="n">
-        <v>1.353847742080688</v>
+        <v>1.610265254974365</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09660515934228897</v>
+        <v>1.395455121994019</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1068183407187462</v>
+        <v>0.02926420420408249</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1017118021845818</v>
+        <v>0.7123599648475647</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_11</t>
+          <t>model_6_7_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9908272085254486</v>
+        <v>0.945401498641109</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7968229621247774</v>
+        <v>0.7591462861495591</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9396035598191146</v>
+        <v>0.2097606409732922</v>
       </c>
       <c r="E13" t="n">
-        <v>-4.508606153727416</v>
+        <v>0.9971986360242093</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8733037818697299</v>
+        <v>0.8819074942509914</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03849624469876289</v>
+        <v>0.2291382402181625</v>
       </c>
       <c r="H13" t="n">
-        <v>1.358645796775818</v>
+        <v>1.610589861869812</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1009299755096436</v>
+        <v>1.402933359146118</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1150298267602921</v>
+        <v>0.02873547188937664</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1079799383878708</v>
+        <v>0.7158340811729431</v>
       </c>
     </row>
     <row r="14">
@@ -936,478 +936,478 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9905625165177795</v>
+        <v>0.9451025797863353</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7961647468924153</v>
+        <v>0.7590912827148891</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9372430971637394</v>
+        <v>0.2050754833754347</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.877132736894107</v>
+        <v>0.9972553292520038</v>
       </c>
       <c r="F14" t="n">
-        <v>0.866474955598932</v>
+        <v>0.8812693576666104</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03960709646344185</v>
+        <v>0.230392724275589</v>
       </c>
       <c r="H14" t="n">
-        <v>1.363047361373901</v>
+        <v>1.610957741737366</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1048746034502983</v>
+        <v>1.411251068115234</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1227253377437592</v>
+        <v>0.02815393172204494</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1137999668717384</v>
+        <v>0.7197021842002869</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_13</t>
+          <t>model_6_7_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.990296890286178</v>
+        <v>0.9447692491678268</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7955624572204084</v>
+        <v>0.7590288881572129</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9350913756615207</v>
+        <v>0.1998634808044297</v>
       </c>
       <c r="E15" t="n">
-        <v>-5.220588151013906</v>
+        <v>0.9973176317034287</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8601579264899183</v>
+        <v>0.8805587841838873</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04072187468409538</v>
+        <v>0.2317916452884674</v>
       </c>
       <c r="H15" t="n">
-        <v>1.367074728012085</v>
+        <v>1.611375093460083</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1084703952074051</v>
+        <v>1.420504093170166</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1298973262310028</v>
+        <v>0.02751485258340836</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1191838085651398</v>
+        <v>0.7240094542503357</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_14</t>
+          <t>model_6_7_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.990035651514162</v>
+        <v>0.9443975765461249</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7950124373437473</v>
+        <v>0.7589580172079268</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9331310141489351</v>
+        <v>0.194066554749486</v>
       </c>
       <c r="E16" t="n">
-        <v>-5.539117107996691</v>
+        <v>0.9973859860160075</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8543337644632709</v>
+        <v>0.8797677298155425</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04181823879480362</v>
+        <v>0.2333514839410782</v>
       </c>
       <c r="H16" t="n">
-        <v>1.370752811431885</v>
+        <v>1.611848950386047</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1117464080452919</v>
+        <v>1.430795431137085</v>
       </c>
       <c r="J16" t="n">
-        <v>0.136548787355423</v>
+        <v>0.02681369706988335</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1241475939750671</v>
+        <v>0.7288045883178711</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_15</t>
+          <t>model_6_7_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9897825887810378</v>
+        <v>0.943982939140054</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7945109659393306</v>
+        <v>0.7588773503251559</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9313468924404127</v>
+        <v>0.1876181605700076</v>
       </c>
       <c r="E17" t="n">
-        <v>-5.833386408768924</v>
+        <v>0.9974608713032644</v>
       </c>
       <c r="F17" t="n">
-        <v>0.848979561215838</v>
+        <v>0.8788867759964676</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04288028553128242</v>
+        <v>0.2350915968418121</v>
       </c>
       <c r="H17" t="n">
-        <v>1.374106168746948</v>
+        <v>1.612388253211975</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1147278919816017</v>
+        <v>1.442243456840515</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1426936686038971</v>
+        <v>0.02604554779827595</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1287108510732651</v>
+        <v>0.7341446280479431</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_16</t>
+          <t>model_6_7_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9895403020191876</v>
+        <v>0.9435202583933109</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7940544021398278</v>
+        <v>0.75878544228495</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9297242620714326</v>
+        <v>0.1804450137315133</v>
       </c>
       <c r="E18" t="n">
-        <v>-6.104324679259146</v>
+        <v>0.9975427650671523</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8440695555139298</v>
+        <v>0.8779056455713536</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0438971146941185</v>
+        <v>0.2370333820581436</v>
       </c>
       <c r="H18" t="n">
-        <v>1.377159237861633</v>
+        <v>1.613002777099609</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1174395084381104</v>
+        <v>1.454978108406067</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1483513563871384</v>
+        <v>0.02520550787448883</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1328955292701721</v>
+        <v>0.740091860294342</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_17</t>
+          <t>model_6_7_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9893104747473226</v>
+        <v>0.9430037428390485</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7936392476218493</v>
+        <v>0.7586805268247695</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9282496914842778</v>
+        <v>0.172465310061322</v>
       </c>
       <c r="E19" t="n">
-        <v>-6.353083649543885</v>
+        <v>0.9976320973249971</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8395766467541567</v>
+        <v>0.8768126984550509</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04486164450645447</v>
+        <v>0.239201083779335</v>
       </c>
       <c r="H19" t="n">
-        <v>1.379935264587402</v>
+        <v>1.613704442977905</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1199036985635757</v>
+        <v>1.469144821166992</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1535459011793137</v>
+        <v>0.02428916841745377</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1367247104644775</v>
+        <v>0.7467168569564819</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_18</t>
+          <t>model_6_7_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9890941759389893</v>
+        <v>0.9424271079215659</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7932620929696469</v>
+        <v>0.7585606691297476</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9269112655424815</v>
+        <v>0.1635911347411063</v>
       </c>
       <c r="E20" t="n">
-        <v>-6.580871398563354</v>
+        <v>0.9977293526378905</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8354737745258306</v>
+        <v>0.8755953963421625</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04576940461993217</v>
+        <v>0.2416211068630219</v>
       </c>
       <c r="H20" t="n">
-        <v>1.382457375526428</v>
+        <v>1.614505887031555</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1221403777599335</v>
+        <v>1.484899282455444</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1583025306463242</v>
+        <v>0.02329155430197716</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1402214765548706</v>
+        <v>0.754095733165741</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_19</t>
+          <t>model_6_7_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9888918140603727</v>
+        <v>0.9417830984525428</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7929198105132897</v>
+        <v>0.7584235153184201</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9256968645794046</v>
+        <v>0.1537218150035149</v>
       </c>
       <c r="E21" t="n">
-        <v>-6.789039440502808</v>
+        <v>0.9978348963446488</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8317329916176992</v>
+        <v>0.874239399771906</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04661868140101433</v>
+        <v>0.2443238645792007</v>
       </c>
       <c r="H21" t="n">
-        <v>1.384746313095093</v>
+        <v>1.615423083305359</v>
       </c>
       <c r="I21" t="n">
-        <v>0.124169796705246</v>
+        <v>1.502420544624329</v>
       </c>
       <c r="J21" t="n">
-        <v>0.162649467587471</v>
+        <v>0.02220892161130905</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1434096544981003</v>
+        <v>0.7623152732849121</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_20</t>
+          <t>model_6_7_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9887034929737156</v>
+        <v>0.94106371592616</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7926094569240694</v>
+        <v>0.7582663783779293</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9245961857359326</v>
+        <v>0.1427473949647509</v>
       </c>
       <c r="E22" t="n">
-        <v>-6.97893261353818</v>
+        <v>0.9979490988230876</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8283277460891888</v>
+        <v>0.8727290346814121</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04740902036428452</v>
+        <v>0.247342973947525</v>
       </c>
       <c r="H22" t="n">
-        <v>1.386821508407593</v>
+        <v>1.616473913192749</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1260091662406921</v>
+        <v>1.52190375328064</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1666147857904434</v>
+        <v>0.02103747054934502</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1463118493556976</v>
+        <v>0.7714706063270569</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_21</t>
+          <t>model_6_7_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9885290028590183</v>
+        <v>0.9402599328054113</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7923282398081422</v>
+        <v>0.7580861834895734</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9235992399144964</v>
+        <v>0.1305487724119652</v>
       </c>
       <c r="E23" t="n">
-        <v>-7.151869690140511</v>
+        <v>0.9980721736859309</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8252316364918544</v>
+        <v>0.8710467982064588</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04814131557941437</v>
+        <v>0.2507162988185883</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388701915740967</v>
+        <v>1.617678880691528</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1276751905679703</v>
+        <v>1.543560266494751</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1702260226011276</v>
+        <v>0.01977500878274441</v>
       </c>
       <c r="K23" t="n">
-        <v>0.148950606584549</v>
+        <v>0.7816676497459412</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_22</t>
+          <t>model_6_7_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9883678975791359</v>
+        <v>0.9393617695749089</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7920735685067991</v>
+        <v>0.7578793123200075</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9226965657833937</v>
+        <v>0.1169940092157824</v>
       </c>
       <c r="E24" t="n">
-        <v>-7.309156054524983</v>
+        <v>0.9982042282956467</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8224198344929501</v>
+        <v>0.8691735836422455</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04881744459271431</v>
+        <v>0.2544856667518616</v>
       </c>
       <c r="H24" t="n">
-        <v>1.390405058860779</v>
+        <v>1.619062185287476</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1291836649179459</v>
+        <v>1.567624449729919</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1735104620456696</v>
+        <v>0.01842043548822403</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1513470113277435</v>
+        <v>0.7930224537849426</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_23</t>
+          <t>model_6_7_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.988219642764431</v>
+        <v>0.9383581506131412</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7918431118409459</v>
+        <v>0.7576416256375611</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9218802095153249</v>
+        <v>0.1019410269140829</v>
       </c>
       <c r="E25" t="n">
-        <v>-7.452039844475241</v>
+        <v>0.9983451999030717</v>
       </c>
       <c r="F25" t="n">
-        <v>0.819869013505212</v>
+        <v>0.8670885082538631</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04943963512778282</v>
+        <v>0.2586976289749146</v>
       </c>
       <c r="H25" t="n">
-        <v>1.391946077346802</v>
+        <v>1.620651483535767</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1305479109287262</v>
+        <v>1.594348430633545</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1764941215515137</v>
+        <v>0.01697439700365067</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1535210311412811</v>
+        <v>0.8056614398956299</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_24</t>
+          <t>model_6_7_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9880835293642153</v>
+        <v>0.9146674851241153</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7916346695538067</v>
+        <v>0.7506674801333872</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9211414805285287</v>
+        <v>-0.2214639506701337</v>
       </c>
       <c r="E26" t="n">
-        <v>-7.581703212600496</v>
+        <v>0.9999999999999882</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8175563438693212</v>
+        <v>0.8211293766268152</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05001087114214897</v>
+        <v>0.3581222891807556</v>
       </c>
       <c r="H26" t="n">
-        <v>1.393339991569519</v>
+        <v>1.667287588119507</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1317824125289917</v>
+        <v>2.168498039245605</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1792017370462418</v>
+        <v>1.210143096841421e-13</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1554920524358749</v>
+        <v>1.084249019622803</v>
       </c>
     </row>
   </sheetData>
